--- a/projects/project pitch schedule.xlsx
+++ b/projects/project pitch schedule.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acarter\Desktop\teaching\2019S - CS 480\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E54738BB-3175-4C28-BC16-84EC228ED698}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AC84BE-58FD-4783-9D9A-A08D12705399}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project pitch schedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
   <si>
     <t>Student</t>
   </si>
@@ -83,12 +83,21 @@
   </si>
   <si>
     <t>Order</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>d1 attendance</t>
+  </si>
+  <si>
+    <t>d2 attendance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -923,11 +932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -936,7 +945,7 @@
     <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -946,8 +955,14 @@
       <c r="C1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -957,8 +972,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -968,8 +989,14 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -979,8 +1006,14 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -990,8 +1023,14 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1001,8 +1040,11 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1054,14 @@
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1023,8 +1071,11 @@
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1034,8 +1085,14 @@
       <c r="C9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1045,8 +1102,14 @@
       <c r="C10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1056,8 +1119,14 @@
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1136,14 @@
       <c r="C12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1078,8 +1153,14 @@
       <c r="C13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1089,8 +1170,11 @@
       <c r="C14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1100,8 +1184,14 @@
       <c r="C15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1111,8 +1201,14 @@
       <c r="C16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1121,6 +1217,12 @@
       </c>
       <c r="C17">
         <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
